--- a/platform_inputs/input_S2.xlsx
+++ b/platform_inputs/input_S2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -184,12 +184,19 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -204,6 +211,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -216,6 +224,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -230,6 +239,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -242,6 +252,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -256,6 +267,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -264,6 +276,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -276,6 +289,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -286,10 +300,11 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -396,74 +411,6 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1010,76 +957,76 @@
       </c>
       <c r="H5" s="14" t="n"/>
       <c r="I5" s="17" t="n">
-        <v>55853</v>
+        <v>220</v>
       </c>
       <c r="J5" s="18" t="n">
-        <v>13467</v>
+        <v>280</v>
       </c>
       <c r="K5" s="17" t="n">
-        <v>16509</v>
+        <v>460</v>
       </c>
       <c r="L5" s="17" t="n">
-        <v>29475</v>
+        <v>327</v>
       </c>
       <c r="M5" s="17" t="n">
-        <v>17777</v>
+        <v>290</v>
       </c>
       <c r="N5" s="17" t="n">
-        <v>21777</v>
+        <v>483</v>
       </c>
       <c r="O5" s="17" t="n">
-        <v>31270</v>
+        <v>680</v>
       </c>
       <c r="P5" s="17" t="n">
-        <v>35854</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="17" t="n">
-        <v>26715</v>
+        <v>762</v>
       </c>
       <c r="R5" s="17" t="n">
-        <v>30905</v>
+        <v>600</v>
       </c>
       <c r="S5" s="17" t="n">
-        <v>26339</v>
+        <v>530</v>
       </c>
       <c r="T5" s="17" t="n">
-        <v>14608</v>
+        <v>860</v>
       </c>
       <c r="U5" s="17" t="n">
-        <v>18062</v>
+        <v>390</v>
       </c>
       <c r="V5" s="17" t="n">
-        <v>17847</v>
+        <v>620</v>
       </c>
       <c r="W5" s="17" t="n">
-        <v>24504</v>
+        <v>434</v>
       </c>
       <c r="X5" s="17" t="n">
-        <v>21008</v>
+        <v>686</v>
       </c>
       <c r="Y5" s="17" t="n">
-        <v>27290</v>
+        <v>550</v>
       </c>
       <c r="Z5" s="17" t="n">
-        <v>17526</v>
+        <v>620</v>
       </c>
       <c r="AA5" s="17" t="n">
-        <v>19864</v>
+        <v>1000</v>
       </c>
       <c r="AB5" s="17" t="n">
-        <v>25546</v>
+        <v>710</v>
       </c>
       <c r="AC5" s="17" t="n">
-        <v>11664</v>
+        <v>450</v>
       </c>
       <c r="AD5" s="17" t="n">
-        <v>21242</v>
+        <v>237</v>
       </c>
       <c r="AE5" s="17" t="n">
-        <v>9561</v>
+        <v>256</v>
       </c>
       <c r="AF5" s="17" t="n">
-        <v>6082</v>
+        <v>132</v>
       </c>
       <c r="AG5" s="17" t="n"/>
       <c r="AH5" s="17" t="n"/>
@@ -1121,7 +1068,7 @@
         </is>
       </c>
       <c r="H6" s="20" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="I6" s="20" t="n"/>
       <c r="J6" s="20" t="n"/>
@@ -1188,76 +1135,76 @@
       </c>
       <c r="H7" s="23" t="n"/>
       <c r="I7" s="24" t="n">
-        <v>17095</v>
+        <v>0</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>4727</v>
+        <v>0</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>4492</v>
+        <v>170</v>
       </c>
       <c r="L7" s="24" t="n">
-        <v>6328</v>
+        <v>80</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>8789</v>
+        <v>70</v>
       </c>
       <c r="N7" s="24" t="n">
-        <v>5880</v>
+        <v>150</v>
       </c>
       <c r="O7" s="24" t="n">
-        <v>5015</v>
+        <v>130</v>
       </c>
       <c r="P7" s="24" t="n">
-        <v>2908</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="24" t="n">
-        <v>5068</v>
+        <v>70</v>
       </c>
       <c r="R7" s="24" t="n">
-        <v>9961</v>
+        <v>160</v>
       </c>
       <c r="S7" s="24" t="n">
-        <v>9682</v>
+        <v>170</v>
       </c>
       <c r="T7" s="24" t="n">
-        <v>9213</v>
+        <v>130</v>
       </c>
       <c r="U7" s="24" t="n">
-        <v>5759</v>
+        <v>30</v>
       </c>
       <c r="V7" s="24" t="n">
-        <v>5447</v>
+        <v>120</v>
       </c>
       <c r="W7" s="24" t="n">
-        <v>5104</v>
+        <v>40</v>
       </c>
       <c r="X7" s="24" t="n">
-        <v>1379</v>
+        <v>150</v>
       </c>
       <c r="Y7" s="24" t="n">
-        <v>1945</v>
+        <v>150</v>
       </c>
       <c r="Z7" s="24" t="n">
-        <v>3656</v>
+        <v>20</v>
       </c>
       <c r="AA7" s="24" t="n">
-        <v>1960</v>
+        <v>170</v>
       </c>
       <c r="AB7" s="24" t="n">
-        <v>676</v>
+        <v>40</v>
       </c>
       <c r="AC7" s="24" t="n">
-        <v>8053</v>
+        <v>130</v>
       </c>
       <c r="AD7" s="24" t="n">
-        <v>7886</v>
+        <v>100</v>
       </c>
       <c r="AE7" s="24" t="n">
-        <v>7143</v>
+        <v>190</v>
       </c>
       <c r="AF7" s="24" t="n">
-        <v>8967</v>
+        <v>40</v>
       </c>
       <c r="AG7" s="24" t="n"/>
       <c r="AH7" s="24" t="n"/>
@@ -1300,76 +1247,76 @@
       </c>
       <c r="H8" s="23" t="n"/>
       <c r="I8" s="18" t="n">
-        <v>17095</v>
+        <v>0</v>
       </c>
       <c r="J8" s="18" t="n">
-        <v>4727</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18" t="n">
-        <v>4492</v>
+        <v>170</v>
       </c>
       <c r="L8" s="18" t="n">
-        <v>6328</v>
+        <v>80</v>
       </c>
       <c r="M8" s="18" t="n">
-        <v>8789</v>
+        <v>70</v>
       </c>
       <c r="N8" s="18" t="n">
-        <v>5880</v>
+        <v>150</v>
       </c>
       <c r="O8" s="18" t="n">
-        <v>5015</v>
+        <v>130</v>
       </c>
       <c r="P8" s="18" t="n">
-        <v>2908</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="18" t="n">
-        <v>5068</v>
+        <v>70</v>
       </c>
       <c r="R8" s="18" t="n">
-        <v>9961</v>
+        <v>160</v>
       </c>
       <c r="S8" s="18" t="n">
-        <v>9682</v>
+        <v>170</v>
       </c>
       <c r="T8" s="18" t="n">
-        <v>9213</v>
+        <v>130</v>
       </c>
       <c r="U8" s="18" t="n">
-        <v>5759</v>
+        <v>30</v>
       </c>
       <c r="V8" s="18" t="n">
-        <v>5447</v>
+        <v>120</v>
       </c>
       <c r="W8" s="18" t="n">
-        <v>5104</v>
+        <v>40</v>
       </c>
       <c r="X8" s="18" t="n">
-        <v>1379</v>
+        <v>150</v>
       </c>
       <c r="Y8" s="18" t="n">
-        <v>1945</v>
+        <v>150</v>
       </c>
       <c r="Z8" s="18" t="n">
-        <v>3656</v>
+        <v>20</v>
       </c>
       <c r="AA8" s="18" t="n">
-        <v>1960</v>
+        <v>170</v>
       </c>
       <c r="AB8" s="18" t="n">
-        <v>676</v>
+        <v>40</v>
       </c>
       <c r="AC8" s="18" t="n">
-        <v>8053</v>
+        <v>130</v>
       </c>
       <c r="AD8" s="18" t="n">
-        <v>7886</v>
+        <v>100</v>
       </c>
       <c r="AE8" s="18" t="n">
-        <v>7143</v>
+        <v>190</v>
       </c>
       <c r="AF8" s="18" t="n">
-        <v>8967</v>
+        <v>40</v>
       </c>
       <c r="AG8" s="18" t="n"/>
       <c r="AH8" s="18" t="n"/>
@@ -1412,73 +1359,73 @@
       </c>
       <c r="H9" s="23" t="n"/>
       <c r="I9" s="27" t="n">
-        <v>726</v>
+        <v>70</v>
       </c>
       <c r="J9" s="27" t="n">
-        <v>1520</v>
+        <v>10</v>
       </c>
       <c r="K9" s="27" t="n">
-        <v>796</v>
+        <v>90</v>
       </c>
       <c r="L9" s="27" t="n">
-        <v>3383</v>
+        <v>10</v>
       </c>
       <c r="M9" s="27" t="n">
-        <v>1024</v>
+        <v>40</v>
       </c>
       <c r="N9" s="27" t="n">
-        <v>4496</v>
+        <v>0</v>
       </c>
       <c r="O9" s="27" t="n">
-        <v>414</v>
+        <v>150</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>4157</v>
+        <v>140</v>
       </c>
       <c r="R9" s="27" t="n">
-        <v>2929</v>
+        <v>140</v>
       </c>
       <c r="S9" s="27" t="n">
-        <v>2924</v>
+        <v>110</v>
       </c>
       <c r="T9" s="27" t="n">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="U9" s="27" t="n">
-        <v>3636</v>
+        <v>60</v>
       </c>
       <c r="V9" s="27" t="n">
-        <v>1502</v>
+        <v>50</v>
       </c>
       <c r="W9" s="27" t="n">
-        <v>4096</v>
+        <v>30</v>
       </c>
       <c r="X9" s="27" t="n">
-        <v>2574</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="27" t="n">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="Z9" s="27" t="n">
-        <v>3249</v>
+        <v>150</v>
       </c>
       <c r="AA9" s="27" t="n">
-        <v>2319</v>
+        <v>130</v>
       </c>
       <c r="AB9" s="27" t="n">
-        <v>2784</v>
+        <v>170</v>
       </c>
       <c r="AC9" s="27" t="n">
-        <v>2652</v>
+        <v>20</v>
       </c>
       <c r="AD9" s="27" t="n">
-        <v>1241</v>
+        <v>20</v>
       </c>
       <c r="AE9" s="27" t="n">
-        <v>678</v>
+        <v>20</v>
       </c>
       <c r="AF9" s="27" t="n">
         <v>0</v>
@@ -1524,73 +1471,73 @@
       </c>
       <c r="H10" s="23" t="n"/>
       <c r="I10" s="18" t="n">
-        <v>726</v>
+        <v>70</v>
       </c>
       <c r="J10" s="18" t="n">
-        <v>1520</v>
+        <v>10</v>
       </c>
       <c r="K10" s="18" t="n">
-        <v>796</v>
+        <v>90</v>
       </c>
       <c r="L10" s="18" t="n">
-        <v>3383</v>
+        <v>10</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>1024</v>
+        <v>40</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>4496</v>
+        <v>0</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>414</v>
+        <v>150</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>4157</v>
+        <v>140</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>2929</v>
+        <v>140</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>2924</v>
+        <v>110</v>
       </c>
       <c r="T10" s="18" t="n">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>3636</v>
+        <v>60</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>1502</v>
+        <v>50</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>4096</v>
+        <v>30</v>
       </c>
       <c r="X10" s="18" t="n">
-        <v>2574</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="18" t="n">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="Z10" s="18" t="n">
-        <v>3249</v>
+        <v>150</v>
       </c>
       <c r="AA10" s="18" t="n">
-        <v>2319</v>
+        <v>130</v>
       </c>
       <c r="AB10" s="18" t="n">
-        <v>2784</v>
+        <v>170</v>
       </c>
       <c r="AC10" s="18" t="n">
-        <v>2652</v>
+        <v>20</v>
       </c>
       <c r="AD10" s="18" t="n">
-        <v>1241</v>
+        <v>20</v>
       </c>
       <c r="AE10" s="18" t="n">
-        <v>678</v>
+        <v>20</v>
       </c>
       <c r="AF10" s="18" t="n">
         <v>0</v>
@@ -1636,70 +1583,70 @@
       </c>
       <c r="H11" s="23" t="n"/>
       <c r="I11" s="27" t="n">
-        <v>4845</v>
+        <v>150</v>
       </c>
       <c r="J11" s="27" t="n">
-        <v>3543</v>
+        <v>200</v>
       </c>
       <c r="K11" s="27" t="n">
-        <v>6477</v>
+        <v>200</v>
       </c>
       <c r="L11" s="27" t="n">
-        <v>7702</v>
+        <v>50</v>
       </c>
       <c r="M11" s="27" t="n">
-        <v>1387</v>
+        <v>150</v>
       </c>
       <c r="N11" s="27" t="n">
-        <v>3758</v>
+        <v>250</v>
       </c>
       <c r="O11" s="27" t="n">
-        <v>5205</v>
+        <v>100</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>5902</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>3347</v>
+        <v>250</v>
       </c>
       <c r="R11" s="27" t="n">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="S11" s="27" t="n">
-        <v>7474</v>
+        <v>50</v>
       </c>
       <c r="T11" s="27" t="n">
-        <v>7400</v>
+        <v>250</v>
       </c>
       <c r="U11" s="27" t="n">
-        <v>5558</v>
+        <v>200</v>
       </c>
       <c r="V11" s="27" t="n">
-        <v>6316</v>
+        <v>250</v>
       </c>
       <c r="W11" s="27" t="n">
-        <v>7606</v>
+        <v>250</v>
       </c>
       <c r="X11" s="27" t="n">
-        <v>4824</v>
+        <v>150</v>
       </c>
       <c r="Y11" s="27" t="n">
-        <v>2275</v>
+        <v>250</v>
       </c>
       <c r="Z11" s="27" t="n">
-        <v>3385</v>
+        <v>150</v>
       </c>
       <c r="AA11" s="27" t="n">
-        <v>2964</v>
+        <v>300</v>
       </c>
       <c r="AB11" s="27" t="n">
-        <v>618</v>
+        <v>100</v>
       </c>
       <c r="AC11" s="27" t="n">
-        <v>2791</v>
+        <v>200</v>
       </c>
       <c r="AD11" s="27" t="n">
-        <v>7386</v>
+        <v>100</v>
       </c>
       <c r="AE11" s="27" t="n">
         <v>0</v>
@@ -1748,70 +1695,70 @@
       </c>
       <c r="H12" s="23" t="n"/>
       <c r="I12" s="18" t="n">
-        <v>4845</v>
+        <v>150</v>
       </c>
       <c r="J12" s="18" t="n">
-        <v>3543</v>
+        <v>200</v>
       </c>
       <c r="K12" s="18" t="n">
-        <v>6477</v>
+        <v>200</v>
       </c>
       <c r="L12" s="18" t="n">
-        <v>7702</v>
+        <v>50</v>
       </c>
       <c r="M12" s="18" t="n">
-        <v>1387</v>
+        <v>150</v>
       </c>
       <c r="N12" s="18" t="n">
-        <v>3758</v>
+        <v>250</v>
       </c>
       <c r="O12" s="18" t="n">
-        <v>5205</v>
+        <v>100</v>
       </c>
       <c r="P12" s="18" t="n">
-        <v>5902</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="18" t="n">
-        <v>3347</v>
+        <v>250</v>
       </c>
       <c r="R12" s="18" t="n">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="S12" s="18" t="n">
-        <v>7474</v>
+        <v>50</v>
       </c>
       <c r="T12" s="18" t="n">
-        <v>7400</v>
+        <v>250</v>
       </c>
       <c r="U12" s="18" t="n">
-        <v>5558</v>
+        <v>200</v>
       </c>
       <c r="V12" s="18" t="n">
-        <v>6316</v>
+        <v>250</v>
       </c>
       <c r="W12" s="18" t="n">
-        <v>7606</v>
+        <v>250</v>
       </c>
       <c r="X12" s="18" t="n">
-        <v>4824</v>
+        <v>150</v>
       </c>
       <c r="Y12" s="18" t="n">
-        <v>2275</v>
+        <v>250</v>
       </c>
       <c r="Z12" s="18" t="n">
-        <v>3385</v>
+        <v>150</v>
       </c>
       <c r="AA12" s="18" t="n">
-        <v>2964</v>
+        <v>300</v>
       </c>
       <c r="AB12" s="18" t="n">
-        <v>618</v>
+        <v>100</v>
       </c>
       <c r="AC12" s="18" t="n">
-        <v>2791</v>
+        <v>200</v>
       </c>
       <c r="AD12" s="18" t="n">
-        <v>7386</v>
+        <v>100</v>
       </c>
       <c r="AE12" s="18" t="n">
         <v>0</v>
@@ -1860,67 +1807,67 @@
       </c>
       <c r="H13" s="23" t="n"/>
       <c r="I13" s="27" t="n">
-        <v>13187</v>
+        <v>0</v>
       </c>
       <c r="J13" s="27" t="n">
-        <v>3677</v>
+        <v>70</v>
       </c>
       <c r="K13" s="27" t="n">
-        <v>4744</v>
+        <v>0</v>
       </c>
       <c r="L13" s="27" t="n">
-        <v>12062</v>
+        <v>0</v>
       </c>
       <c r="M13" s="27" t="n">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="N13" s="27" t="n">
-        <v>13981</v>
+        <v>100</v>
       </c>
       <c r="O13" s="27" t="n">
-        <v>1488</v>
+        <v>300</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>7890</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>5205</v>
+        <v>400</v>
       </c>
       <c r="R13" s="27" t="n">
-        <v>8675</v>
+        <v>100</v>
       </c>
       <c r="S13" s="27" t="n">
-        <v>11190</v>
+        <v>200</v>
       </c>
       <c r="T13" s="27" t="n">
-        <v>18762</v>
+        <v>400</v>
       </c>
       <c r="U13" s="27" t="n">
-        <v>11762</v>
+        <v>100</v>
       </c>
       <c r="V13" s="27" t="n">
-        <v>17640</v>
+        <v>200</v>
       </c>
       <c r="W13" s="27" t="n">
-        <v>9533</v>
+        <v>100</v>
       </c>
       <c r="X13" s="27" t="n">
-        <v>5831</v>
+        <v>300</v>
       </c>
       <c r="Y13" s="27" t="n">
-        <v>13653</v>
+        <v>100</v>
       </c>
       <c r="Z13" s="27" t="n">
-        <v>7557</v>
+        <v>300</v>
       </c>
       <c r="AA13" s="27" t="n">
-        <v>17261</v>
+        <v>400</v>
       </c>
       <c r="AB13" s="27" t="n">
-        <v>16930</v>
+        <v>400</v>
       </c>
       <c r="AC13" s="27" t="n">
-        <v>13794</v>
+        <v>100</v>
       </c>
       <c r="AD13" s="27" t="n">
         <v>0</v>
@@ -1972,67 +1919,67 @@
       </c>
       <c r="H14" s="30" t="n"/>
       <c r="I14" s="18" t="n">
-        <v>13187</v>
+        <v>0</v>
       </c>
       <c r="J14" s="18" t="n">
-        <v>3677</v>
+        <v>70</v>
       </c>
       <c r="K14" s="18" t="n">
-        <v>4744</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18" t="n">
-        <v>12062</v>
+        <v>0</v>
       </c>
       <c r="M14" s="18" t="n">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="N14" s="18" t="n">
-        <v>13981</v>
+        <v>100</v>
       </c>
       <c r="O14" s="18" t="n">
-        <v>1488</v>
+        <v>300</v>
       </c>
       <c r="P14" s="18" t="n">
-        <v>7890</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="18" t="n">
-        <v>5205</v>
+        <v>400</v>
       </c>
       <c r="R14" s="18" t="n">
-        <v>8675</v>
+        <v>100</v>
       </c>
       <c r="S14" s="18" t="n">
-        <v>11190</v>
+        <v>200</v>
       </c>
       <c r="T14" s="18" t="n">
-        <v>18762</v>
+        <v>400</v>
       </c>
       <c r="U14" s="18" t="n">
-        <v>11762</v>
+        <v>100</v>
       </c>
       <c r="V14" s="18" t="n">
-        <v>17640</v>
+        <v>200</v>
       </c>
       <c r="W14" s="18" t="n">
-        <v>9533</v>
+        <v>100</v>
       </c>
       <c r="X14" s="18" t="n">
-        <v>5831</v>
+        <v>300</v>
       </c>
       <c r="Y14" s="18" t="n">
-        <v>13653</v>
+        <v>100</v>
       </c>
       <c r="Z14" s="18" t="n">
-        <v>7557</v>
+        <v>300</v>
       </c>
       <c r="AA14" s="18" t="n">
-        <v>17261</v>
+        <v>400</v>
       </c>
       <c r="AB14" s="18" t="n">
-        <v>16930</v>
+        <v>400</v>
       </c>
       <c r="AC14" s="18" t="n">
-        <v>13794</v>
+        <v>100</v>
       </c>
       <c r="AD14" s="18" t="n">
         <v>0</v>
@@ -2120,76 +2067,76 @@
       </c>
       <c r="H16" s="14" t="n"/>
       <c r="I16" s="17" t="n">
-        <v>41810</v>
+        <v>60</v>
       </c>
       <c r="J16" s="18" t="n">
-        <v>30299</v>
+        <v>440</v>
       </c>
       <c r="K16" s="17" t="n">
-        <v>14814</v>
+        <v>480</v>
       </c>
       <c r="L16" s="17" t="n">
-        <v>27900</v>
+        <v>197</v>
       </c>
       <c r="M16" s="17" t="n">
-        <v>5830</v>
+        <v>379</v>
       </c>
       <c r="N16" s="17" t="n">
-        <v>31372</v>
+        <v>295</v>
       </c>
       <c r="O16" s="17" t="n">
-        <v>23314</v>
+        <v>473</v>
       </c>
       <c r="P16" s="17" t="n">
-        <v>19925</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="17" t="n">
-        <v>13919</v>
+        <v>374</v>
       </c>
       <c r="R16" s="17" t="n">
-        <v>14183</v>
+        <v>297</v>
       </c>
       <c r="S16" s="17" t="n">
-        <v>20806</v>
+        <v>227</v>
       </c>
       <c r="T16" s="17" t="n">
-        <v>19925</v>
+        <v>417</v>
       </c>
       <c r="U16" s="17" t="n">
-        <v>13919</v>
+        <v>296</v>
       </c>
       <c r="V16" s="17" t="n">
-        <v>14183</v>
+        <v>71</v>
       </c>
       <c r="W16" s="17" t="n">
-        <v>21464</v>
+        <v>273</v>
       </c>
       <c r="X16" s="17" t="n">
-        <v>19281</v>
+        <v>450</v>
       </c>
       <c r="Y16" s="17" t="n">
-        <v>24138</v>
+        <v>450</v>
       </c>
       <c r="Z16" s="17" t="n">
-        <v>14640</v>
+        <v>240</v>
       </c>
       <c r="AA16" s="17" t="n">
-        <v>4400</v>
+        <v>296</v>
       </c>
       <c r="AB16" s="17" t="n">
-        <v>12964</v>
+        <v>449</v>
       </c>
       <c r="AC16" s="17" t="n">
-        <v>24138</v>
+        <v>232</v>
       </c>
       <c r="AD16" s="17" t="n">
-        <v>14265</v>
+        <v>146</v>
       </c>
       <c r="AE16" s="17" t="n">
-        <v>7065</v>
+        <v>208</v>
       </c>
       <c r="AF16" s="17" t="n">
-        <v>2088</v>
+        <v>108</v>
       </c>
       <c r="AG16" s="17" t="n"/>
       <c r="AH16" s="17" t="n"/>
@@ -2231,7 +2178,7 @@
         </is>
       </c>
       <c r="H17" s="20" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="I17" s="20" t="n"/>
       <c r="J17" s="20" t="n"/>
@@ -2298,76 +2245,76 @@
       </c>
       <c r="H18" s="23" t="n"/>
       <c r="I18" s="24" t="n">
-        <v>13637</v>
+        <v>10</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>6996</v>
+        <v>50</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>2975</v>
+        <v>110</v>
       </c>
       <c r="L18" s="24" t="n">
-        <v>4920</v>
+        <v>50</v>
       </c>
       <c r="M18" s="25" t="n">
-        <v>3750</v>
+        <v>20</v>
       </c>
       <c r="N18" s="24" t="n">
-        <v>9196</v>
+        <v>130</v>
       </c>
       <c r="O18" s="24" t="n">
-        <v>3731</v>
+        <v>170</v>
       </c>
       <c r="P18" s="24" t="n">
-        <v>4888</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="24" t="n">
-        <v>3540</v>
+        <v>180</v>
       </c>
       <c r="R18" s="24" t="n">
-        <v>9590</v>
+        <v>10</v>
       </c>
       <c r="S18" s="24" t="n">
-        <v>3551</v>
+        <v>100</v>
       </c>
       <c r="T18" s="24" t="n">
-        <v>6800</v>
+        <v>200</v>
       </c>
       <c r="U18" s="24" t="n">
-        <v>1836</v>
+        <v>30</v>
       </c>
       <c r="V18" s="24" t="n">
-        <v>7201</v>
+        <v>200</v>
       </c>
       <c r="W18" s="24" t="n">
-        <v>799</v>
+        <v>50</v>
       </c>
       <c r="X18" s="24" t="n">
-        <v>1938</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="24" t="n">
-        <v>2250</v>
+        <v>40</v>
       </c>
       <c r="Z18" s="24" t="n">
-        <v>8200</v>
+        <v>10</v>
       </c>
       <c r="AA18" s="24" t="n">
-        <v>2247</v>
+        <v>40</v>
       </c>
       <c r="AB18" s="24" t="n">
-        <v>2298</v>
+        <v>100</v>
       </c>
       <c r="AC18" s="24" t="n">
-        <v>7635</v>
+        <v>150</v>
       </c>
       <c r="AD18" s="24" t="n">
-        <v>5883</v>
+        <v>100</v>
       </c>
       <c r="AE18" s="24" t="n">
-        <v>3128</v>
+        <v>110</v>
       </c>
       <c r="AF18" s="24" t="n">
-        <v>3086</v>
+        <v>40</v>
       </c>
       <c r="AG18" s="24" t="n"/>
       <c r="AH18" s="24" t="n"/>
@@ -2410,76 +2357,76 @@
       </c>
       <c r="H19" s="23" t="n"/>
       <c r="I19" s="18" t="n">
-        <v>13637</v>
+        <v>10</v>
       </c>
       <c r="J19" s="18" t="n">
-        <v>6996</v>
+        <v>50</v>
       </c>
       <c r="K19" s="18" t="n">
-        <v>2975</v>
+        <v>110</v>
       </c>
       <c r="L19" s="18" t="n">
-        <v>4920</v>
+        <v>50</v>
       </c>
       <c r="M19" s="18" t="n">
-        <v>3750</v>
+        <v>20</v>
       </c>
       <c r="N19" s="18" t="n">
-        <v>9196</v>
+        <v>130</v>
       </c>
       <c r="O19" s="18" t="n">
-        <v>3731</v>
+        <v>170</v>
       </c>
       <c r="P19" s="18" t="n">
-        <v>4888</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="18" t="n">
-        <v>3540</v>
+        <v>180</v>
       </c>
       <c r="R19" s="18" t="n">
-        <v>9590</v>
+        <v>10</v>
       </c>
       <c r="S19" s="18" t="n">
-        <v>3551</v>
+        <v>100</v>
       </c>
       <c r="T19" s="18" t="n">
-        <v>6800</v>
+        <v>200</v>
       </c>
       <c r="U19" s="18" t="n">
-        <v>1836</v>
+        <v>30</v>
       </c>
       <c r="V19" s="18" t="n">
-        <v>7201</v>
+        <v>200</v>
       </c>
       <c r="W19" s="18" t="n">
-        <v>799</v>
+        <v>50</v>
       </c>
       <c r="X19" s="18" t="n">
-        <v>1938</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="18" t="n">
-        <v>2250</v>
+        <v>40</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>8200</v>
+        <v>10</v>
       </c>
       <c r="AA19" s="18" t="n">
-        <v>2247</v>
+        <v>40</v>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>2298</v>
+        <v>100</v>
       </c>
       <c r="AC19" s="18" t="n">
-        <v>7635</v>
+        <v>150</v>
       </c>
       <c r="AD19" s="18" t="n">
-        <v>5883</v>
+        <v>100</v>
       </c>
       <c r="AE19" s="18" t="n">
-        <v>3128</v>
+        <v>110</v>
       </c>
       <c r="AF19" s="18" t="n">
-        <v>3086</v>
+        <v>40</v>
       </c>
       <c r="AG19" s="18" t="n"/>
       <c r="AH19" s="18" t="n"/>
@@ -2522,73 +2469,73 @@
       </c>
       <c r="H20" s="23" t="n"/>
       <c r="I20" s="27" t="n">
-        <v>1571</v>
+        <v>50</v>
       </c>
       <c r="J20" s="27" t="n">
-        <v>3429</v>
+        <v>20</v>
       </c>
       <c r="K20" s="27" t="n">
-        <v>1869</v>
+        <v>170</v>
       </c>
       <c r="L20" s="27" t="n">
-        <v>3867</v>
+        <v>0</v>
       </c>
       <c r="M20" s="27" t="n">
-        <v>4158</v>
+        <v>60</v>
       </c>
       <c r="N20" s="27" t="n">
-        <v>2576</v>
+        <v>20</v>
       </c>
       <c r="O20" s="27" t="n">
-        <v>4236</v>
+        <v>170</v>
       </c>
       <c r="P20" s="27" t="n">
-        <v>4757</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="27" t="n">
-        <v>1097</v>
+        <v>80</v>
       </c>
       <c r="R20" s="27" t="n">
-        <v>2890</v>
+        <v>130</v>
       </c>
       <c r="S20" s="27" t="n">
-        <v>1734</v>
+        <v>140</v>
       </c>
       <c r="T20" s="27" t="n">
-        <v>2039</v>
+        <v>30</v>
       </c>
       <c r="U20" s="27" t="n">
-        <v>2169</v>
+        <v>70</v>
       </c>
       <c r="V20" s="27" t="n">
-        <v>2116</v>
+        <v>120</v>
       </c>
       <c r="W20" s="27" t="n">
-        <v>4245</v>
+        <v>140</v>
       </c>
       <c r="X20" s="27" t="n">
-        <v>417</v>
+        <v>10</v>
       </c>
       <c r="Y20" s="27" t="n">
-        <v>3646</v>
+        <v>110</v>
       </c>
       <c r="Z20" s="27" t="n">
-        <v>4762</v>
+        <v>30</v>
       </c>
       <c r="AA20" s="27" t="n">
-        <v>2708</v>
+        <v>30</v>
       </c>
       <c r="AB20" s="27" t="n">
-        <v>1802</v>
+        <v>60</v>
       </c>
       <c r="AC20" s="27" t="n">
-        <v>2316</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="27" t="n">
-        <v>3274</v>
+        <v>100</v>
       </c>
       <c r="AE20" s="27" t="n">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="AF20" s="27" t="n">
         <v>0</v>
@@ -2634,73 +2581,73 @@
       </c>
       <c r="H21" s="23" t="n"/>
       <c r="I21" s="18" t="n">
-        <v>1571</v>
+        <v>50</v>
       </c>
       <c r="J21" s="18" t="n">
-        <v>3429</v>
+        <v>20</v>
       </c>
       <c r="K21" s="18" t="n">
-        <v>1869</v>
+        <v>170</v>
       </c>
       <c r="L21" s="18" t="n">
-        <v>3867</v>
+        <v>0</v>
       </c>
       <c r="M21" s="18" t="n">
-        <v>4158</v>
+        <v>60</v>
       </c>
       <c r="N21" s="18" t="n">
-        <v>2576</v>
+        <v>20</v>
       </c>
       <c r="O21" s="18" t="n">
-        <v>4236</v>
+        <v>170</v>
       </c>
       <c r="P21" s="18" t="n">
-        <v>4757</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="18" t="n">
-        <v>1097</v>
+        <v>80</v>
       </c>
       <c r="R21" s="18" t="n">
-        <v>2890</v>
+        <v>130</v>
       </c>
       <c r="S21" s="18" t="n">
-        <v>1734</v>
+        <v>140</v>
       </c>
       <c r="T21" s="18" t="n">
-        <v>2039</v>
+        <v>30</v>
       </c>
       <c r="U21" s="18" t="n">
-        <v>2169</v>
+        <v>70</v>
       </c>
       <c r="V21" s="18" t="n">
-        <v>2116</v>
+        <v>120</v>
       </c>
       <c r="W21" s="18" t="n">
-        <v>4245</v>
+        <v>140</v>
       </c>
       <c r="X21" s="18" t="n">
-        <v>417</v>
+        <v>10</v>
       </c>
       <c r="Y21" s="18" t="n">
-        <v>3646</v>
+        <v>110</v>
       </c>
       <c r="Z21" s="18" t="n">
-        <v>4762</v>
+        <v>30</v>
       </c>
       <c r="AA21" s="18" t="n">
-        <v>2708</v>
+        <v>30</v>
       </c>
       <c r="AB21" s="18" t="n">
-        <v>1802</v>
+        <v>60</v>
       </c>
       <c r="AC21" s="18" t="n">
-        <v>2316</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="18" t="n">
-        <v>3274</v>
+        <v>100</v>
       </c>
       <c r="AE21" s="18" t="n">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="AF21" s="18" t="n">
         <v>0</v>
@@ -2746,67 +2693,67 @@
       </c>
       <c r="H22" s="23" t="n"/>
       <c r="I22" s="27" t="n">
-        <v>1602</v>
+        <v>0</v>
       </c>
       <c r="J22" s="27" t="n">
-        <v>19874</v>
+        <v>370</v>
       </c>
       <c r="K22" s="27" t="n">
-        <v>9970</v>
+        <v>200</v>
       </c>
       <c r="L22" s="27" t="n">
-        <v>8087</v>
+        <v>100</v>
       </c>
       <c r="M22" s="27" t="n">
-        <v>8948</v>
+        <v>0</v>
       </c>
       <c r="N22" s="27" t="n">
-        <v>14302</v>
+        <v>0</v>
       </c>
       <c r="O22" s="27" t="n">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="P22" s="27" t="n">
-        <v>18255</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="27" t="n">
-        <v>1181</v>
+        <v>200</v>
       </c>
       <c r="R22" s="27" t="n">
-        <v>18892</v>
+        <v>100</v>
       </c>
       <c r="S22" s="27" t="n">
-        <v>18029</v>
+        <v>200</v>
       </c>
       <c r="T22" s="27" t="n">
-        <v>11086</v>
+        <v>0</v>
       </c>
       <c r="U22" s="27" t="n">
-        <v>9914</v>
+        <v>0</v>
       </c>
       <c r="V22" s="27" t="n">
-        <v>4866</v>
+        <v>300</v>
       </c>
       <c r="W22" s="27" t="n">
-        <v>15010</v>
+        <v>300</v>
       </c>
       <c r="X22" s="27" t="n">
-        <v>12640</v>
+        <v>400</v>
       </c>
       <c r="Y22" s="27" t="n">
-        <v>2164</v>
+        <v>300</v>
       </c>
       <c r="Z22" s="27" t="n">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="27" t="n">
-        <v>16509</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="27" t="n">
-        <v>15181</v>
+        <v>100</v>
       </c>
       <c r="AC22" s="27" t="n">
-        <v>14187</v>
+        <v>200</v>
       </c>
       <c r="AD22" s="27" t="n">
         <v>0</v>
@@ -2858,67 +2805,67 @@
       </c>
       <c r="H23" s="30" t="n"/>
       <c r="I23" s="18" t="n">
-        <v>1602</v>
+        <v>0</v>
       </c>
       <c r="J23" s="18" t="n">
-        <v>19874</v>
+        <v>370</v>
       </c>
       <c r="K23" s="18" t="n">
-        <v>9970</v>
+        <v>200</v>
       </c>
       <c r="L23" s="18" t="n">
-        <v>8087</v>
+        <v>100</v>
       </c>
       <c r="M23" s="18" t="n">
-        <v>8948</v>
+        <v>0</v>
       </c>
       <c r="N23" s="18" t="n">
-        <v>14302</v>
+        <v>0</v>
       </c>
       <c r="O23" s="18" t="n">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="P23" s="18" t="n">
-        <v>18255</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="18" t="n">
-        <v>1181</v>
+        <v>200</v>
       </c>
       <c r="R23" s="18" t="n">
-        <v>18892</v>
+        <v>100</v>
       </c>
       <c r="S23" s="18" t="n">
-        <v>18029</v>
+        <v>200</v>
       </c>
       <c r="T23" s="18" t="n">
-        <v>11086</v>
+        <v>0</v>
       </c>
       <c r="U23" s="18" t="n">
-        <v>9914</v>
+        <v>0</v>
       </c>
       <c r="V23" s="18" t="n">
-        <v>4866</v>
+        <v>300</v>
       </c>
       <c r="W23" s="18" t="n">
-        <v>15010</v>
+        <v>300</v>
       </c>
       <c r="X23" s="18" t="n">
-        <v>12640</v>
+        <v>400</v>
       </c>
       <c r="Y23" s="18" t="n">
-        <v>2164</v>
+        <v>300</v>
       </c>
       <c r="Z23" s="18" t="n">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="AA23" s="18" t="n">
-        <v>16509</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="18" t="n">
-        <v>15181</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="18" t="n">
-        <v>14187</v>
+        <v>200</v>
       </c>
       <c r="AD23" s="18" t="n">
         <v>0</v>
@@ -3006,76 +2953,76 @@
       </c>
       <c r="H25" s="14" t="n"/>
       <c r="I25" s="17" t="n">
-        <v>34518</v>
+        <v>220</v>
       </c>
       <c r="J25" s="18" t="n">
-        <v>8906</v>
+        <v>320</v>
       </c>
       <c r="K25" s="17" t="n">
-        <v>14811</v>
+        <v>310</v>
       </c>
       <c r="L25" s="17" t="n">
-        <v>8262</v>
+        <v>210</v>
       </c>
       <c r="M25" s="17" t="n">
-        <v>13291</v>
+        <v>300</v>
       </c>
       <c r="N25" s="17" t="n">
-        <v>9534</v>
+        <v>330</v>
       </c>
       <c r="O25" s="17" t="n">
-        <v>17809</v>
+        <v>380</v>
       </c>
       <c r="P25" s="17" t="n">
-        <v>6663</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="17" t="n">
-        <v>13650</v>
+        <v>196</v>
       </c>
       <c r="R25" s="17" t="n">
-        <v>10654</v>
+        <v>251</v>
       </c>
       <c r="S25" s="17" t="n">
-        <v>7989</v>
+        <v>303</v>
       </c>
       <c r="T25" s="17" t="n">
-        <v>11915</v>
+        <v>173</v>
       </c>
       <c r="U25" s="17" t="n">
-        <v>5333</v>
+        <v>83</v>
       </c>
       <c r="V25" s="17" t="n">
-        <v>12922</v>
+        <v>281</v>
       </c>
       <c r="W25" s="17" t="n">
-        <v>13999</v>
+        <v>248</v>
       </c>
       <c r="X25" s="17" t="n">
-        <v>16805</v>
+        <v>259</v>
       </c>
       <c r="Y25" s="17" t="n">
-        <v>15802</v>
+        <v>189</v>
       </c>
       <c r="Z25" s="17" t="n">
-        <v>6762</v>
+        <v>119</v>
       </c>
       <c r="AA25" s="17" t="n">
-        <v>6837</v>
+        <v>256</v>
       </c>
       <c r="AB25" s="17" t="n">
-        <v>9392</v>
+        <v>379</v>
       </c>
       <c r="AC25" s="17" t="n">
-        <v>8188</v>
+        <v>178</v>
       </c>
       <c r="AD25" s="17" t="n">
-        <v>11186</v>
+        <v>323</v>
       </c>
       <c r="AE25" s="17" t="n">
-        <v>1247</v>
+        <v>131</v>
       </c>
       <c r="AF25" s="17" t="n">
-        <v>2517</v>
+        <v>138</v>
       </c>
       <c r="AG25" s="17" t="n"/>
       <c r="AH25" s="17" t="n"/>
@@ -3117,7 +3064,7 @@
         </is>
       </c>
       <c r="H26" s="20" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="I26" s="20" t="n"/>
       <c r="J26" s="20" t="n"/>
@@ -3184,76 +3131,76 @@
       </c>
       <c r="H27" s="23" t="n"/>
       <c r="I27" s="24" t="n">
-        <v>12412</v>
+        <v>70</v>
       </c>
       <c r="J27" s="24" t="n">
-        <v>4825</v>
+        <v>170</v>
       </c>
       <c r="K27" s="24" t="n">
-        <v>9565</v>
+        <v>110</v>
       </c>
       <c r="L27" s="24" t="n">
-        <v>2478</v>
+        <v>110</v>
       </c>
       <c r="M27" s="25" t="n">
-        <v>7919</v>
+        <v>150</v>
       </c>
       <c r="N27" s="24" t="n">
-        <v>699</v>
+        <v>180</v>
       </c>
       <c r="O27" s="24" t="n">
-        <v>7876</v>
+        <v>80</v>
       </c>
       <c r="P27" s="24" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="Q27" s="24" t="n">
-        <v>3445</v>
+        <v>20</v>
       </c>
       <c r="R27" s="24" t="n">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="S27" s="24" t="n">
-        <v>9855</v>
+        <v>50</v>
       </c>
       <c r="T27" s="24" t="n">
-        <v>3437</v>
+        <v>120</v>
       </c>
       <c r="U27" s="24" t="n">
-        <v>6938</v>
+        <v>150</v>
       </c>
       <c r="V27" s="24" t="n">
-        <v>7130</v>
+        <v>140</v>
       </c>
       <c r="W27" s="24" t="n">
-        <v>1802</v>
+        <v>160</v>
       </c>
       <c r="X27" s="24" t="n">
-        <v>9961</v>
+        <v>30</v>
       </c>
       <c r="Y27" s="24" t="n">
-        <v>2956</v>
+        <v>30</v>
       </c>
       <c r="Z27" s="24" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="24" t="n">
-        <v>6524</v>
+        <v>110</v>
       </c>
       <c r="AB27" s="24" t="n">
-        <v>8050</v>
+        <v>80</v>
       </c>
       <c r="AC27" s="24" t="n">
-        <v>9702</v>
+        <v>180</v>
       </c>
       <c r="AD27" s="24" t="n">
-        <v>1774</v>
+        <v>170</v>
       </c>
       <c r="AE27" s="24" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF27" s="24" t="n">
-        <v>2976</v>
+        <v>30</v>
       </c>
       <c r="AG27" s="24" t="n"/>
       <c r="AH27" s="24" t="n"/>
@@ -3296,76 +3243,76 @@
       </c>
       <c r="H28" s="23" t="n"/>
       <c r="I28" s="18" t="n">
-        <v>12412</v>
+        <v>70</v>
       </c>
       <c r="J28" s="18" t="n">
-        <v>4825</v>
+        <v>170</v>
       </c>
       <c r="K28" s="18" t="n">
-        <v>9565</v>
+        <v>110</v>
       </c>
       <c r="L28" s="18" t="n">
-        <v>2478</v>
+        <v>110</v>
       </c>
       <c r="M28" s="18" t="n">
-        <v>7919</v>
+        <v>150</v>
       </c>
       <c r="N28" s="18" t="n">
-        <v>699</v>
+        <v>180</v>
       </c>
       <c r="O28" s="18" t="n">
-        <v>7876</v>
+        <v>80</v>
       </c>
       <c r="P28" s="18" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="18" t="n">
-        <v>3445</v>
+        <v>20</v>
       </c>
       <c r="R28" s="18" t="n">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="S28" s="18" t="n">
-        <v>9855</v>
+        <v>50</v>
       </c>
       <c r="T28" s="18" t="n">
-        <v>3437</v>
+        <v>120</v>
       </c>
       <c r="U28" s="18" t="n">
-        <v>6938</v>
+        <v>150</v>
       </c>
       <c r="V28" s="18" t="n">
-        <v>7130</v>
+        <v>140</v>
       </c>
       <c r="W28" s="18" t="n">
-        <v>1802</v>
+        <v>160</v>
       </c>
       <c r="X28" s="18" t="n">
-        <v>9961</v>
+        <v>30</v>
       </c>
       <c r="Y28" s="18" t="n">
-        <v>2956</v>
+        <v>30</v>
       </c>
       <c r="Z28" s="18" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="18" t="n">
-        <v>6524</v>
+        <v>110</v>
       </c>
       <c r="AB28" s="18" t="n">
-        <v>8050</v>
+        <v>80</v>
       </c>
       <c r="AC28" s="18" t="n">
-        <v>9702</v>
+        <v>180</v>
       </c>
       <c r="AD28" s="18" t="n">
-        <v>1774</v>
+        <v>170</v>
       </c>
       <c r="AE28" s="18" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF28" s="18" t="n">
-        <v>2976</v>
+        <v>30</v>
       </c>
       <c r="AG28" s="18" t="n"/>
       <c r="AH28" s="18" t="n"/>
@@ -3408,70 +3355,70 @@
       </c>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="27" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>4081</v>
+        <v>150</v>
       </c>
       <c r="K29" s="27" t="n">
-        <v>5246</v>
+        <v>200</v>
       </c>
       <c r="L29" s="27" t="n">
-        <v>5784</v>
+        <v>100</v>
       </c>
       <c r="M29" s="27" t="n">
-        <v>5372</v>
+        <v>150</v>
       </c>
       <c r="N29" s="27" t="n">
-        <v>8835</v>
+        <v>150</v>
       </c>
       <c r="O29" s="27" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="P29" s="27" t="n">
-        <v>5712</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="27" t="n">
-        <v>8359</v>
+        <v>150</v>
       </c>
       <c r="R29" s="27" t="n">
-        <v>4713</v>
+        <v>100</v>
       </c>
       <c r="S29" s="27" t="n">
-        <v>7954</v>
+        <v>50</v>
       </c>
       <c r="T29" s="27" t="n">
-        <v>3226</v>
+        <v>100</v>
       </c>
       <c r="U29" s="27" t="n">
-        <v>6712</v>
+        <v>150</v>
       </c>
       <c r="V29" s="27" t="n">
-        <v>3524</v>
+        <v>150</v>
       </c>
       <c r="W29" s="27" t="n">
-        <v>6187</v>
+        <v>100</v>
       </c>
       <c r="X29" s="27" t="n">
-        <v>1954</v>
+        <v>50</v>
       </c>
       <c r="Y29" s="27" t="n">
-        <v>2377</v>
+        <v>250</v>
       </c>
       <c r="Z29" s="27" t="n">
-        <v>7487</v>
+        <v>150</v>
       </c>
       <c r="AA29" s="27" t="n">
-        <v>7475</v>
+        <v>250</v>
       </c>
       <c r="AB29" s="27" t="n">
-        <v>8755</v>
+        <v>200</v>
       </c>
       <c r="AC29" s="27" t="n">
-        <v>6100</v>
+        <v>100</v>
       </c>
       <c r="AD29" s="27" t="n">
-        <v>4988</v>
+        <v>50</v>
       </c>
       <c r="AE29" s="27" t="n">
         <v>0</v>
@@ -3520,70 +3467,70 @@
       </c>
       <c r="H30" s="23" t="n"/>
       <c r="I30" s="18" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="J30" s="18" t="n">
-        <v>4081</v>
+        <v>150</v>
       </c>
       <c r="K30" s="18" t="n">
-        <v>5246</v>
+        <v>200</v>
       </c>
       <c r="L30" s="18" t="n">
-        <v>5784</v>
+        <v>100</v>
       </c>
       <c r="M30" s="18" t="n">
-        <v>5372</v>
+        <v>150</v>
       </c>
       <c r="N30" s="18" t="n">
-        <v>8835</v>
+        <v>150</v>
       </c>
       <c r="O30" s="18" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="P30" s="18" t="n">
-        <v>5712</v>
+        <v>150</v>
       </c>
       <c r="Q30" s="18" t="n">
-        <v>8359</v>
+        <v>150</v>
       </c>
       <c r="R30" s="18" t="n">
-        <v>4713</v>
+        <v>100</v>
       </c>
       <c r="S30" s="18" t="n">
-        <v>7954</v>
+        <v>50</v>
       </c>
       <c r="T30" s="18" t="n">
-        <v>3226</v>
+        <v>100</v>
       </c>
       <c r="U30" s="18" t="n">
-        <v>6712</v>
+        <v>150</v>
       </c>
       <c r="V30" s="18" t="n">
-        <v>3524</v>
+        <v>150</v>
       </c>
       <c r="W30" s="18" t="n">
-        <v>6187</v>
+        <v>100</v>
       </c>
       <c r="X30" s="18" t="n">
-        <v>1954</v>
+        <v>50</v>
       </c>
       <c r="Y30" s="18" t="n">
-        <v>2377</v>
+        <v>250</v>
       </c>
       <c r="Z30" s="18" t="n">
-        <v>7487</v>
+        <v>150</v>
       </c>
       <c r="AA30" s="18" t="n">
-        <v>7475</v>
+        <v>250</v>
       </c>
       <c r="AB30" s="18" t="n">
-        <v>8755</v>
+        <v>200</v>
       </c>
       <c r="AC30" s="18" t="n">
-        <v>6100</v>
+        <v>100</v>
       </c>
       <c r="AD30" s="18" t="n">
-        <v>4988</v>
+        <v>50</v>
       </c>
       <c r="AE30" s="18" t="n">
         <v>0</v>
@@ -3668,76 +3615,76 @@
       </c>
       <c r="H32" s="14" t="n"/>
       <c r="I32" s="17" t="n">
-        <v>40687</v>
+        <v>160</v>
       </c>
       <c r="J32" s="18" t="n">
-        <v>4616</v>
+        <v>60</v>
       </c>
       <c r="K32" s="17" t="n">
-        <v>4141</v>
+        <v>80</v>
       </c>
       <c r="L32" s="17" t="n">
-        <v>7673</v>
+        <v>71</v>
       </c>
       <c r="M32" s="17" t="n">
-        <v>2807</v>
+        <v>99</v>
       </c>
       <c r="N32" s="17" t="n">
-        <v>7305</v>
+        <v>105</v>
       </c>
       <c r="O32" s="17" t="n">
-        <v>3847</v>
+        <v>163</v>
       </c>
       <c r="P32" s="17" t="n">
-        <v>7944</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="17" t="n">
-        <v>9485</v>
+        <v>121</v>
       </c>
       <c r="R32" s="17" t="n">
-        <v>617</v>
+        <v>199</v>
       </c>
       <c r="S32" s="17" t="n">
-        <v>2904</v>
+        <v>115</v>
       </c>
       <c r="T32" s="17" t="n">
-        <v>7944</v>
+        <v>168</v>
       </c>
       <c r="U32" s="17" t="n">
-        <v>9485</v>
+        <v>168</v>
       </c>
       <c r="V32" s="17" t="n">
-        <v>5203</v>
+        <v>132</v>
       </c>
       <c r="W32" s="17" t="n">
-        <v>7066</v>
+        <v>160</v>
       </c>
       <c r="X32" s="17" t="n">
-        <v>1655</v>
+        <v>136</v>
       </c>
       <c r="Y32" s="17" t="n">
-        <v>8443</v>
+        <v>152</v>
       </c>
       <c r="Z32" s="17" t="n">
-        <v>2110</v>
+        <v>56</v>
       </c>
       <c r="AA32" s="17" t="n">
-        <v>9823</v>
+        <v>131</v>
       </c>
       <c r="AB32" s="17" t="n">
-        <v>715</v>
+        <v>115</v>
       </c>
       <c r="AC32" s="17" t="n">
-        <v>7285</v>
+        <v>17</v>
       </c>
       <c r="AD32" s="17" t="n">
-        <v>8951</v>
+        <v>56</v>
       </c>
       <c r="AE32" s="17" t="n">
         <v>153</v>
       </c>
       <c r="AF32" s="17" t="n">
-        <v>1185</v>
+        <v>113</v>
       </c>
       <c r="AG32" s="17" t="n"/>
       <c r="AH32" s="17" t="n"/>
@@ -3779,7 +3726,7 @@
         </is>
       </c>
       <c r="H33" s="20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I33" s="20" t="n"/>
       <c r="J33" s="20" t="n"/>
@@ -3846,76 +3793,76 @@
       </c>
       <c r="H34" s="23" t="n"/>
       <c r="I34" s="24" t="n">
-        <v>11687</v>
+        <v>60</v>
       </c>
       <c r="J34" s="24" t="n">
-        <v>4616</v>
+        <v>60</v>
       </c>
       <c r="K34" s="24" t="n">
-        <v>3178</v>
+        <v>80</v>
       </c>
       <c r="L34" s="24" t="n">
-        <v>3520</v>
+        <v>10</v>
       </c>
       <c r="M34" s="25" t="n">
-        <v>6762</v>
+        <v>160</v>
       </c>
       <c r="N34" s="24" t="n">
-        <v>7490</v>
+        <v>80</v>
       </c>
       <c r="O34" s="24" t="n">
-        <v>4141</v>
+        <v>40</v>
       </c>
       <c r="P34" s="24" t="n">
-        <v>7673</v>
+        <v>120</v>
       </c>
       <c r="Q34" s="24" t="n">
-        <v>2807</v>
+        <v>170</v>
       </c>
       <c r="R34" s="24" t="n">
-        <v>7305</v>
+        <v>80</v>
       </c>
       <c r="S34" s="24" t="n">
-        <v>3847</v>
+        <v>150</v>
       </c>
       <c r="T34" s="24" t="n">
-        <v>7944</v>
+        <v>40</v>
       </c>
       <c r="U34" s="24" t="n">
-        <v>9485</v>
+        <v>40</v>
       </c>
       <c r="V34" s="24" t="n">
-        <v>617</v>
+        <v>70</v>
       </c>
       <c r="W34" s="24" t="n">
-        <v>2895</v>
+        <v>120</v>
       </c>
       <c r="X34" s="24" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="Y34" s="24" t="n">
-        <v>5929</v>
+        <v>170</v>
       </c>
       <c r="Z34" s="24" t="n">
-        <v>5203</v>
+        <v>180</v>
       </c>
       <c r="AA34" s="24" t="n">
-        <v>7066</v>
+        <v>10</v>
       </c>
       <c r="AB34" s="24" t="n">
-        <v>1655</v>
+        <v>130</v>
       </c>
       <c r="AC34" s="24" t="n">
-        <v>8443</v>
+        <v>10</v>
       </c>
       <c r="AD34" s="24" t="n">
-        <v>2110</v>
+        <v>190</v>
       </c>
       <c r="AE34" s="24" t="n">
-        <v>9823</v>
+        <v>110</v>
       </c>
       <c r="AF34" s="24" t="n">
-        <v>715</v>
+        <v>100</v>
       </c>
       <c r="AG34" s="24" t="n"/>
       <c r="AH34" s="24" t="n"/>
@@ -3958,76 +3905,76 @@
       </c>
       <c r="H35" s="23" t="n"/>
       <c r="I35" s="18" t="n">
-        <v>11687</v>
+        <v>60</v>
       </c>
       <c r="J35" s="18" t="n">
-        <v>4616</v>
+        <v>60</v>
       </c>
       <c r="K35" s="18" t="n">
-        <v>3178</v>
+        <v>80</v>
       </c>
       <c r="L35" s="18" t="n">
-        <v>3520</v>
+        <v>10</v>
       </c>
       <c r="M35" s="18" t="n">
-        <v>6762</v>
+        <v>160</v>
       </c>
       <c r="N35" s="18" t="n">
-        <v>7490</v>
+        <v>80</v>
       </c>
       <c r="O35" s="18" t="n">
-        <v>4141</v>
+        <v>40</v>
       </c>
       <c r="P35" s="18" t="n">
-        <v>7673</v>
+        <v>120</v>
       </c>
       <c r="Q35" s="18" t="n">
-        <v>2807</v>
+        <v>170</v>
       </c>
       <c r="R35" s="18" t="n">
-        <v>7305</v>
+        <v>80</v>
       </c>
       <c r="S35" s="18" t="n">
-        <v>3847</v>
+        <v>150</v>
       </c>
       <c r="T35" s="18" t="n">
-        <v>7944</v>
+        <v>40</v>
       </c>
       <c r="U35" s="18" t="n">
-        <v>9485</v>
+        <v>40</v>
       </c>
       <c r="V35" s="18" t="n">
-        <v>617</v>
+        <v>70</v>
       </c>
       <c r="W35" s="18" t="n">
-        <v>2895</v>
+        <v>120</v>
       </c>
       <c r="X35" s="18" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="Y35" s="18" t="n">
-        <v>5929</v>
+        <v>170</v>
       </c>
       <c r="Z35" s="18" t="n">
-        <v>5203</v>
+        <v>180</v>
       </c>
       <c r="AA35" s="18" t="n">
-        <v>7066</v>
+        <v>10</v>
       </c>
       <c r="AB35" s="18" t="n">
-        <v>1655</v>
+        <v>130</v>
       </c>
       <c r="AC35" s="18" t="n">
-        <v>8443</v>
+        <v>10</v>
       </c>
       <c r="AD35" s="18" t="n">
-        <v>2110</v>
+        <v>190</v>
       </c>
       <c r="AE35" s="18" t="n">
-        <v>9823</v>
+        <v>110</v>
       </c>
       <c r="AF35" s="18" t="n">
-        <v>715</v>
+        <v>100</v>
       </c>
       <c r="AG35" s="18" t="n"/>
       <c r="AH35" s="18" t="n"/>
